--- a/性能测试v2.xlsx
+++ b/性能测试v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Ticket_Gathering\Ticket_Gathering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A1039C8-D027-471F-B7E8-653345102582}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664DA34D-344C-4116-AE85-7459BC901EDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{02E72430-550E-482D-8365-D1F5DD0E57EB}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{02E72430-550E-482D-8365-D1F5DD0E57EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Label</t>
   </si>
@@ -48,47 +48,51 @@
     <t>Avg. Bytes</t>
   </si>
   <si>
+    <t>Threads</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Samples</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average/ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Min/ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max/ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recommond</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login(opted)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>HomePage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Threads</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time/s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Samples</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Average/ms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Min/ms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Max/ms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Search</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Recommond</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Login</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -96,7 +100,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,13 +116,39 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -135,14 +165,29 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -459,39 +504,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F6A2101-4028-46C8-BC0F-8C319B094E95}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="2" width="9.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.75" customWidth="1"/>
+    <col min="6" max="7" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -513,44 +563,44 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>30</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="5">
+        <v>60</v>
+      </c>
+      <c r="B2" s="5">
         <v>100</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1">
-        <v>727</v>
-      </c>
-      <c r="E2" s="1">
-        <v>3926</v>
-      </c>
-      <c r="F2" s="1">
-        <v>29</v>
-      </c>
-      <c r="G2" s="1">
-        <v>12816</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1589.19</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0.1376</v>
-      </c>
-      <c r="J2" s="1">
-        <v>23.399529999999999</v>
-      </c>
-      <c r="K2" s="1">
-        <v>621.52</v>
-      </c>
-      <c r="L2" s="1">
-        <v>2.7</v>
-      </c>
-      <c r="M2" s="1">
-        <v>27198.799999999999</v>
+      <c r="C2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="7">
+        <v>1243</v>
+      </c>
+      <c r="E2" s="7">
+        <v>4711</v>
+      </c>
+      <c r="F2" s="7">
+        <v>69</v>
+      </c>
+      <c r="G2" s="7">
+        <v>8988</v>
+      </c>
+      <c r="H2" s="7">
+        <v>1157.3508214528599</v>
+      </c>
+      <c r="I2" s="7">
+        <v>8.0450522928398993E-2</v>
+      </c>
+      <c r="J2" s="7">
+        <v>20.348028222043901</v>
+      </c>
+      <c r="K2" s="7">
+        <v>573.76165026417198</v>
+      </c>
+      <c r="L2" s="7">
+        <v>2.5033296517671499</v>
+      </c>
+      <c r="M2" s="7">
+        <v>28874.145615446501</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -561,7 +611,7 @@
         <v>100</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1">
         <v>4979</v>
@@ -602,7 +652,7 @@
         <v>100</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1">
         <v>3130</v>
@@ -643,7 +693,7 @@
         <v>100</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1">
         <v>8685</v>
@@ -684,7 +734,7 @@
         <v>100</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1">
         <v>4279</v>
@@ -718,48 +768,90 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="5">
         <v>30</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="5">
         <v>100</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="7">
+        <v>331</v>
+      </c>
+      <c r="E7" s="7">
+        <v>8527</v>
+      </c>
+      <c r="F7" s="7">
+        <v>172</v>
+      </c>
+      <c r="G7" s="7">
+        <v>12606</v>
+      </c>
+      <c r="H7" s="7">
+        <v>2968.0993660601698</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0.30211480362537702</v>
+      </c>
+      <c r="J7" s="7">
+        <v>10.7771953244554</v>
+      </c>
+      <c r="K7" s="7">
+        <v>12.5635164669683</v>
+      </c>
+      <c r="L7" s="7">
+        <v>1.73341195096538</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1193.72809667673</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>60</v>
+      </c>
+      <c r="B8" s="2">
+        <v>100</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1">
-        <v>331</v>
-      </c>
-      <c r="E7" s="1">
-        <v>8527</v>
-      </c>
-      <c r="F7" s="1">
-        <v>172</v>
-      </c>
-      <c r="G7" s="1">
-        <v>12606</v>
-      </c>
-      <c r="H7" s="1">
-        <v>2968.0993660601698</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0.30211480362537702</v>
-      </c>
-      <c r="J7" s="1">
-        <v>10.7771953244554</v>
-      </c>
-      <c r="K7" s="1">
-        <v>12.5635164669683</v>
-      </c>
-      <c r="L7" s="1">
-        <v>1.73341195096538</v>
-      </c>
-      <c r="M7" s="1">
-        <v>1193.72809667673</v>
+      <c r="D8" s="4">
+        <v>17145</v>
+      </c>
+      <c r="E8" s="4">
+        <v>340</v>
+      </c>
+      <c r="F8" s="4">
+        <v>7</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1936</v>
+      </c>
+      <c r="H8" s="4">
+        <v>75.727119278533195</v>
+      </c>
+      <c r="I8" s="4">
+        <v>5.8326042578010998E-3</v>
+      </c>
+      <c r="J8" s="4">
+        <v>281.51322594945998</v>
+      </c>
+      <c r="K8" s="4">
+        <v>169.13229335993299</v>
+      </c>
+      <c r="L8" s="4">
+        <v>64.501581921251798</v>
+      </c>
+      <c r="M8" s="4">
+        <v>615.21609798775103</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/性能测试v2.xlsx
+++ b/性能测试v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Ticket_Gathering\Ticket_Gathering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664DA34D-344C-4116-AE85-7459BC901EDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBB651E-DA2F-40CC-8537-1F033FF0A162}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{02E72430-550E-482D-8365-D1F5DD0E57EB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Label</t>
   </si>
@@ -93,6 +93,10 @@
   </si>
   <si>
     <t>HomePage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomePage(opted)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -165,7 +169,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -189,6 +193,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,16 +514,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F6A2101-4028-46C8-BC0F-8C319B094E95}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.25" customWidth="1"/>
+    <col min="3" max="3" width="17.25" customWidth="1"/>
     <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.75" customWidth="1"/>
     <col min="6" max="7" width="9.25" bestFit="1" customWidth="1"/>
@@ -603,45 +613,45 @@
         <v>28874.145615446501</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>30</v>
-      </c>
-      <c r="B3">
+    <row r="3" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2">
         <v>100</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1">
-        <v>4979</v>
-      </c>
-      <c r="E3" s="1">
-        <v>573</v>
-      </c>
-      <c r="F3" s="1">
-        <v>33</v>
-      </c>
-      <c r="G3" s="1">
-        <v>11654</v>
-      </c>
-      <c r="H3" s="1">
-        <v>494.39421687404399</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1.98835107451295E-2</v>
-      </c>
-      <c r="J3" s="1">
-        <v>160.230417712557</v>
-      </c>
-      <c r="K3" s="1">
-        <v>968.37017331611605</v>
-      </c>
-      <c r="L3" s="1">
-        <v>36.653934961704302</v>
-      </c>
-      <c r="M3" s="1">
-        <v>6188.6567583852102</v>
+      <c r="C3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="8">
+        <v>4223</v>
+      </c>
+      <c r="E3" s="8">
+        <v>1385</v>
+      </c>
+      <c r="F3" s="8">
+        <v>18</v>
+      </c>
+      <c r="G3" s="8">
+        <v>16442</v>
+      </c>
+      <c r="H3" s="8">
+        <v>525.32656008385595</v>
+      </c>
+      <c r="I3" s="8">
+        <v>2.3679848448969899E-2</v>
+      </c>
+      <c r="J3" s="8">
+        <v>69.228373305355603</v>
+      </c>
+      <c r="K3" s="8">
+        <v>543.57926765544801</v>
+      </c>
+      <c r="L3" s="8">
+        <v>9.2406912386682194</v>
+      </c>
+      <c r="M3" s="8">
+        <v>8040.41960691451</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -652,42 +662,42 @@
         <v>100</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1">
-        <v>3130</v>
+        <v>4979</v>
       </c>
       <c r="E4" s="1">
-        <v>913</v>
+        <v>573</v>
       </c>
       <c r="F4" s="1">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="G4" s="1">
-        <v>12117</v>
+        <v>11654</v>
       </c>
       <c r="H4" s="1">
-        <v>794.23321121854894</v>
+        <v>494.39421687404399</v>
       </c>
       <c r="I4" s="1">
-        <v>3.1948881789137303E-2</v>
+        <v>1.98835107451295E-2</v>
       </c>
       <c r="J4" s="1">
-        <v>100.594568536075</v>
+        <v>160.230417712557</v>
       </c>
       <c r="K4" s="1">
-        <v>1141.21285202072</v>
+        <v>968.37017331611605</v>
       </c>
       <c r="L4" s="1">
-        <v>30.9069555479672</v>
+        <v>36.653934961704302</v>
       </c>
       <c r="M4" s="1">
-        <v>11616.9488817891</v>
+        <v>6188.6567583852102</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="B5">
         <v>100</v>
@@ -696,156 +706,197 @@
         <v>14</v>
       </c>
       <c r="D5" s="1">
-        <v>8685</v>
+        <v>3130</v>
       </c>
       <c r="E5" s="1">
-        <v>1010</v>
+        <v>913</v>
       </c>
       <c r="F5" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G5" s="1">
-        <v>12697</v>
+        <v>12117</v>
       </c>
       <c r="H5" s="1">
-        <v>731.83117733635402</v>
+        <v>794.23321121854894</v>
       </c>
       <c r="I5" s="1">
-        <v>1.15141047783534E-2</v>
+        <v>3.1948881789137303E-2</v>
       </c>
       <c r="J5" s="1">
-        <v>96.2252235283689</v>
+        <v>100.594568536075</v>
       </c>
       <c r="K5" s="1">
-        <v>1110.4905536239501</v>
+        <v>1141.21285202072</v>
       </c>
       <c r="L5" s="1">
-        <v>30.188588644786499</v>
+        <v>30.9069555479672</v>
       </c>
       <c r="M5" s="1">
-        <v>11817.507772020699</v>
+        <v>11616.9488817891</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="B6">
         <v>100</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1">
-        <v>4279</v>
+        <v>8685</v>
       </c>
       <c r="E6" s="1">
-        <v>661</v>
+        <v>1010</v>
       </c>
       <c r="F6" s="1">
         <v>5</v>
       </c>
       <c r="G6" s="1">
-        <v>13276</v>
+        <v>12697</v>
       </c>
       <c r="H6" s="1">
-        <v>500.72083145917901</v>
+        <v>731.83117733635402</v>
       </c>
       <c r="I6" s="1">
-        <v>2.3369946249123599E-2</v>
+        <v>1.15141047783534E-2</v>
       </c>
       <c r="J6" s="1">
-        <v>138.770877249878</v>
+        <v>96.2252235283689</v>
       </c>
       <c r="K6" s="1">
-        <v>522.17732740797703</v>
+        <v>1110.4905536239501</v>
       </c>
       <c r="L6" s="1">
-        <v>19.4556523127128</v>
+        <v>30.188588644786499</v>
       </c>
       <c r="M6" s="1">
-        <v>3853.18298667913</v>
+        <v>11817.507772020699</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
+      <c r="A7">
         <v>30</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7">
         <v>100</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="7">
-        <v>331</v>
-      </c>
-      <c r="E7" s="7">
-        <v>8527</v>
-      </c>
-      <c r="F7" s="7">
-        <v>172</v>
-      </c>
-      <c r="G7" s="7">
-        <v>12606</v>
-      </c>
-      <c r="H7" s="7">
-        <v>2968.0993660601698</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0.30211480362537702</v>
-      </c>
-      <c r="J7" s="7">
-        <v>10.7771953244554</v>
-      </c>
-      <c r="K7" s="7">
-        <v>12.5635164669683</v>
-      </c>
-      <c r="L7" s="7">
-        <v>1.73341195096538</v>
-      </c>
-      <c r="M7" s="7">
-        <v>1193.72809667673</v>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4279</v>
+      </c>
+      <c r="E7" s="1">
+        <v>661</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1">
+        <v>13276</v>
+      </c>
+      <c r="H7" s="1">
+        <v>500.72083145917901</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2.3369946249123599E-2</v>
+      </c>
+      <c r="J7" s="1">
+        <v>138.770877249878</v>
+      </c>
+      <c r="K7" s="1">
+        <v>522.17732740797703</v>
+      </c>
+      <c r="L7" s="1">
+        <v>19.4556523127128</v>
+      </c>
+      <c r="M7" s="1">
+        <v>3853.18298667913</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+      <c r="A8" s="5">
+        <v>30</v>
+      </c>
+      <c r="B8" s="5">
+        <v>100</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="7">
+        <v>331</v>
+      </c>
+      <c r="E8" s="7">
+        <v>8527</v>
+      </c>
+      <c r="F8" s="7">
+        <v>172</v>
+      </c>
+      <c r="G8" s="7">
+        <v>12606</v>
+      </c>
+      <c r="H8" s="7">
+        <v>2968.0993660601698</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0.30211480362537702</v>
+      </c>
+      <c r="J8" s="7">
+        <v>10.7771953244554</v>
+      </c>
+      <c r="K8" s="7">
+        <v>12.5635164669683</v>
+      </c>
+      <c r="L8" s="7">
+        <v>1.73341195096538</v>
+      </c>
+      <c r="M8" s="7">
+        <v>1193.72809667673</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
         <v>60</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B9" s="2">
         <v>100</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D9" s="4">
         <v>17145</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E9" s="4">
         <v>340</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F9" s="4">
         <v>7</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G9" s="4">
         <v>1936</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H9" s="4">
         <v>75.727119278533195</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I9" s="4">
         <v>5.8326042578010998E-3</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J9" s="4">
         <v>281.51322594945998</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K9" s="4">
         <v>169.13229335993299</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L9" s="4">
         <v>64.501581921251798</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M9" s="4">
         <v>615.21609798775103</v>
       </c>
     </row>

--- a/性能测试v2.xlsx
+++ b/性能测试v2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Ticket_Gathering\Ticket_Gathering\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ticket_gathering\Ticket_Gathering\Ticket_Gathering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBB651E-DA2F-40CC-8537-1F033FF0A162}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4C3974-FD05-438F-A6D2-633FDC5AD8A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{02E72430-550E-482D-8365-D1F5DD0E57EB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{02E72430-550E-482D-8365-D1F5DD0E57EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Label</t>
   </si>
@@ -76,28 +76,41 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomePage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomePage(opted)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Login(opted)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login(opted)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Detail</t>
+  </si>
+  <si>
     <t>Search</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Recommond</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login(opted)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HomePage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HomePage(opted)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Login+Order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recommend</t>
   </si>
 </sst>
 </file>
@@ -169,7 +182,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -198,6 +211,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -514,24 +530,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F6A2101-4028-46C8-BC0F-8C319B094E95}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" customWidth="1"/>
-    <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.75" customWidth="1"/>
-    <col min="6" max="7" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" customWidth="1"/>
+    <col min="4" max="4" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" customWidth="1"/>
+    <col min="6" max="7" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -572,7 +588,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>60</v>
       </c>
@@ -580,7 +596,7 @@
         <v>100</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D2" s="7">
         <v>1243</v>
@@ -613,7 +629,7 @@
         <v>28874.145615446501</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>60</v>
       </c>
@@ -621,7 +637,7 @@
         <v>100</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D3" s="8">
         <v>4223</v>
@@ -654,7 +670,7 @@
         <v>8040.41960691451</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>30</v>
       </c>
@@ -695,209 +711,496 @@
         <v>6188.6567583852102</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>60</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5214</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1121</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>17889</v>
+      </c>
+      <c r="H5" s="1">
+        <v>733.41323556682698</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1.9179133103183699E-2</v>
+      </c>
+      <c r="J5" s="1">
+        <v>85.511857513038294</v>
+      </c>
+      <c r="K5" s="1">
+        <v>426.02898622773603</v>
+      </c>
+      <c r="L5" s="1">
+        <v>22.687980993948202</v>
+      </c>
+      <c r="M5" s="1">
+        <v>5101.6747219025701</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>30</v>
       </c>
-      <c r="B5">
-        <v>100</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1">
-        <v>3130</v>
-      </c>
-      <c r="E5" s="1">
-        <v>913</v>
-      </c>
-      <c r="F5" s="1">
-        <v>3</v>
-      </c>
-      <c r="G5" s="1">
-        <v>12117</v>
-      </c>
-      <c r="H5" s="1">
-        <v>794.23321121854894</v>
-      </c>
-      <c r="I5" s="1">
-        <v>3.1948881789137303E-2</v>
-      </c>
-      <c r="J5" s="1">
-        <v>100.594568536075</v>
-      </c>
-      <c r="K5" s="1">
-        <v>1141.21285202072</v>
-      </c>
-      <c r="L5" s="1">
-        <v>30.9069555479672</v>
-      </c>
-      <c r="M5" s="1">
-        <v>11616.9488817891</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>90</v>
-      </c>
       <c r="B6">
         <v>100</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1">
-        <v>8685</v>
+        <v>7723</v>
       </c>
       <c r="E6" s="1">
-        <v>1010</v>
+        <v>367</v>
       </c>
       <c r="F6" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G6" s="1">
-        <v>12697</v>
+        <v>2730</v>
       </c>
       <c r="H6" s="1">
-        <v>731.83117733635402</v>
+        <v>130.508264261932</v>
       </c>
       <c r="I6" s="1">
-        <v>1.15141047783534E-2</v>
+        <v>1.29483361388061E-2</v>
       </c>
       <c r="J6" s="1">
-        <v>96.2252235283689</v>
+        <v>249.620220433756</v>
       </c>
       <c r="K6" s="1">
-        <v>1110.4905536239501</v>
+        <v>3076.6472307403201</v>
       </c>
       <c r="L6" s="1">
-        <v>30.188588644786499</v>
+        <v>78.439946851061706</v>
       </c>
       <c r="M6" s="1">
-        <v>11817.507772020699</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+        <v>12621.120031076</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="B7">
         <v>100</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1">
-        <v>4279</v>
+        <v>16164</v>
       </c>
       <c r="E7" s="1">
-        <v>661</v>
+        <v>360</v>
       </c>
       <c r="F7" s="1">
         <v>5</v>
       </c>
       <c r="G7" s="1">
-        <v>13276</v>
+        <v>29715</v>
       </c>
       <c r="H7" s="1">
-        <v>500.72083145917901</v>
+        <v>388.92178154572798</v>
       </c>
       <c r="I7" s="1">
-        <v>2.3369946249123599E-2</v>
+        <v>6.1865874783469397E-3</v>
       </c>
       <c r="J7" s="1">
-        <v>138.770877249878</v>
+        <v>265.693574633857</v>
       </c>
       <c r="K7" s="1">
-        <v>522.17732740797703</v>
+        <v>3292.5296604553901</v>
       </c>
       <c r="L7" s="1">
-        <v>19.4556523127128</v>
+        <v>84.062741423804496</v>
       </c>
       <c r="M7" s="1">
-        <v>3853.18298667913</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
+        <v>12689.619524870001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>90</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="1">
+        <v>23796</v>
+      </c>
+      <c r="E8" s="1">
+        <v>369</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>15383</v>
+      </c>
+      <c r="H8" s="1">
+        <v>218.875208606017</v>
+      </c>
+      <c r="I8" s="1">
+        <v>4.2023869557908803E-3</v>
+      </c>
+      <c r="J8" s="1">
+        <v>263.38159118076697</v>
+      </c>
+      <c r="K8" s="1">
+        <v>3269.0874257558198</v>
+      </c>
+      <c r="L8" s="1">
+        <v>83.497628613804395</v>
+      </c>
+      <c r="M8" s="1">
+        <v>12709.869011598499</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>30</v>
       </c>
-      <c r="B8" s="5">
-        <v>100</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="7">
+      <c r="B9">
+        <v>100</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="1">
+        <v>4652</v>
+      </c>
+      <c r="E9" s="1">
+        <v>297</v>
+      </c>
+      <c r="F9" s="1">
+        <v>6</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1427</v>
+      </c>
+      <c r="H9" s="1">
+        <v>105.05377836337399</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1.0963026655201999E-2</v>
+      </c>
+      <c r="J9" s="1">
+        <v>152.965934499539</v>
+      </c>
+      <c r="K9" s="1">
+        <v>69.644525084670505</v>
+      </c>
+      <c r="L9" s="1">
+        <v>69.143784731356007</v>
+      </c>
+      <c r="M9" s="1">
+        <v>466.22141014617301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>60</v>
+      </c>
+      <c r="B10">
+        <v>100</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1">
+        <v>10030</v>
+      </c>
+      <c r="E10" s="1">
+        <v>288</v>
+      </c>
+      <c r="F10" s="1">
+        <v>44</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1335</v>
+      </c>
+      <c r="H10" s="1">
+        <v>58.342485609006303</v>
+      </c>
+      <c r="I10" s="1">
+        <v>4.4865403788634101E-3</v>
+      </c>
+      <c r="J10" s="1">
+        <v>166.40122104983701</v>
+      </c>
+      <c r="K10" s="1">
+        <v>73.351887956027198</v>
+      </c>
+      <c r="L10" s="1">
+        <v>75.709354158371397</v>
+      </c>
+      <c r="M10" s="1">
+        <v>451.39292123629099</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>30</v>
+      </c>
+      <c r="B11">
+        <v>100</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1821</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1552</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1">
+        <v>12187</v>
+      </c>
+      <c r="H11" s="1">
+        <v>575.31051661393599</v>
+      </c>
+      <c r="I11" s="1">
+        <v>5.4914881933003798E-2</v>
+      </c>
+      <c r="J11" s="1">
+        <v>59.186791042350499</v>
+      </c>
+      <c r="K11" s="1">
+        <v>241.55719551386201</v>
+      </c>
+      <c r="L11" s="1">
+        <v>13.9841388500666</v>
+      </c>
+      <c r="M11" s="1">
+        <v>4179.21911037891</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>60</v>
+      </c>
+      <c r="B12">
+        <v>100</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3683</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1591</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>18149</v>
+      </c>
+      <c r="H12" s="1">
+        <v>523.75132329688199</v>
+      </c>
+      <c r="I12" s="1">
+        <v>2.71517784414879E-2</v>
+      </c>
+      <c r="J12" s="1">
+        <v>60.289086414902798</v>
+      </c>
+      <c r="K12" s="1">
+        <v>248.73442845684099</v>
+      </c>
+      <c r="L12" s="1">
+        <v>14.6630326245314</v>
+      </c>
+      <c r="M12" s="1">
+        <v>4224.7124626662999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>30</v>
+      </c>
+      <c r="B13" s="5">
+        <v>100</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="7">
         <v>331</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E13" s="7">
         <v>8527</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F13" s="7">
         <v>172</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G13" s="7">
         <v>12606</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H13" s="7">
         <v>2968.0993660601698</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I13" s="7">
         <v>0.30211480362537702</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J13" s="7">
         <v>10.7771953244554</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K13" s="7">
         <v>12.5635164669683</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L13" s="7">
         <v>1.73341195096538</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M13" s="7">
         <v>1193.72809667673</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>30</v>
+      </c>
+      <c r="B14" s="2">
+        <v>100</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="8">
+        <v>10185</v>
+      </c>
+      <c r="E14" s="8">
+        <v>272</v>
+      </c>
+      <c r="F14" s="8">
+        <v>1</v>
+      </c>
+      <c r="G14" s="8">
+        <v>1215</v>
+      </c>
+      <c r="H14" s="8">
+        <v>44.477600887006098</v>
+      </c>
+      <c r="I14" s="8">
+        <v>9.7201767304860003E-3</v>
+      </c>
+      <c r="J14" s="8">
+        <v>336.61632019036898</v>
+      </c>
+      <c r="K14" s="8">
+        <v>204.84687040395599</v>
+      </c>
+      <c r="L14" s="8">
+        <v>77.150987271540401</v>
+      </c>
+      <c r="M14" s="8">
+        <v>623.15218458517404</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>60</v>
       </c>
-      <c r="B9" s="2">
-        <v>100</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="4">
+      <c r="B15" s="2">
+        <v>100</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="4">
         <v>17145</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E15" s="4">
         <v>340</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F15" s="4">
         <v>7</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G15" s="4">
         <v>1936</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H15" s="4">
         <v>75.727119278533195</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I15" s="4">
         <v>5.8326042578010998E-3</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J15" s="4">
         <v>281.51322594945998</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K15" s="4">
         <v>169.13229335993299</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L15" s="4">
         <v>64.501581921251798</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M15" s="4">
         <v>615.21609798775103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>90</v>
+      </c>
+      <c r="B16" s="10">
+        <v>100</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="8">
+        <v>31222</v>
+      </c>
+      <c r="E16" s="8">
+        <v>280</v>
+      </c>
+      <c r="F16" s="8">
+        <v>5</v>
+      </c>
+      <c r="G16" s="8">
+        <v>832</v>
+      </c>
+      <c r="H16" s="8">
+        <v>42.677845754138701</v>
+      </c>
+      <c r="I16" s="8">
+        <v>3.1708410736019398E-3</v>
+      </c>
+      <c r="J16" s="8">
+        <v>345.131765122037</v>
+      </c>
+      <c r="K16" s="8">
+        <v>205.60329290173399</v>
+      </c>
+      <c r="L16" s="8">
+        <v>79.625845208453001</v>
+      </c>
+      <c r="M16" s="8">
+        <v>610.02142719876997</v>
       </c>
     </row>
   </sheetData>
